--- a/ParkYoungWoong/first_clustering.xlsx
+++ b/ParkYoungWoong/first_clustering.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>clusters</t>
   </si>
@@ -28,24 +28,24 @@
     <t>top_15_topics</t>
   </si>
   <si>
-    <t>['jwasham/coding-interview-university', 'sindresorhus/awesome', 'twbs/bootstrap', 'donnemartin/system-design-primer', 'github/gitignore', 'trekhleb/javascript-algorithms', 'TheAlgorithms/Python', 'vinta/awesome-python', 'labuladong/fucking-algorithm', 'ossu/computer-science', 'golang/go', 'axios/axios', 'nodejs/node', 'angular/angular', 'mrdoob/three.js', 'animate-css/animate.css', 'avelino/awesome-go', 'MisterBooo/LeetCodeAnimation', 'awesome-selfhosted/awesome-selfhosted', 'pallets/flask', 'yangshun/tech-interview-handbook', 'atom/atom', 'thedaviddias/Front-End-Checklist', 'chartjs/Chart.js', 'expressjs/express', 'kdn251/interviews', 'Genymobile/scrcpy', 'h5bp/html5-boilerplate', 'nvm-sh/nvm', 'h5bp/Front-end-Developer-Interview-Questions', 'ansible/ansible', 'rails/rails', 'papers-we-love/papers-we-love', 'fatedier/frp', 'scikit-learn/scikit-learn', '521xueweihan/HelloGitHub', 'tailwindlabs/tailwindcss', 'psf/requests', 'jaywcjlove/awesome-mac', 'ionic-team/ionic-framework', 'ReactiveX/RxJava', 'necolas/normalize.css', 'mtdvio/every-programmer-should-know', 'jgthms/bulma', 'azl397985856/leetcode', 'grafana/grafana', 'leonardomso/33-js-concepts', 'sindresorhus/awesome-nodejs', 'DopplerHQ/awesome-interview-questions', 'google/guava', 'square/okhttp', 'TheAlgorithms/Java', 'juliangarnier/anime', 'apache/superset', 'nestjs/nest', 'android/architecture-samples', 'square/retrofit', 'JetBrains/kotlin', 'nwjs/nw.js', 'v2ray/v2ray-core', 'prakhar1989/awesome-courses', 'gogs/gogs', 'etcd-io/etcd', 'traefik/traefik', 'styled-components/styled-components', 'caddyserver/caddy', 'MunGell/awesome-for-beginners', 'discourse/discourse', 'PhilJay/MPAndroidChart', 'GitSquared/edex-ui', 'hexojs/hexo', 'tiimgreen/github-cheat-sheet', 'microsoft/Web-Dev-For-Beginners', 'sahat/hackathon-starter', 'dypsilon/frontend-dev-bookmarks', 'shadowsocks/shadowsocks-android', 'airbnb/lottie-android', 'Leaflet/Leaflet', 'yangshun/front-end-interview-handbook', 'zenorocha/clipboard.js', 'pandas-dev/pandas', 'apache/spark', 'akullpp/awesome-java', 'pingcap/tidb', 'joshbuchea/HEAD', 'carbon-app/carbon', 'nativefier/nativefier', 'willmcgugan/rich', 'zxing/zxing', 'certbot/certbot', 'geekxh/hello-algorithm', 'agalwood/Motrix', 'codepath/android_guides', 'satwikkansal/wtfpython', 'go-gitea/gitea', 'metabase/metabase', 'beego/beego', 'square/leakcanary', 'crossoverJie/JCSprout', 'go-gitea/gitea', 'metabase/metabase', 'herrbischoff/awesome-macos-command-line', 'ReactiveX/rxjs', 'typeorm/typeorm', 'IanLunn/Hover', 'Modernizr/Modernizr', 'postcss/postcss', 'gto76/python-cheatsheet', 'github/fetch', 'go-gorm/gorm', 'sequelize/sequelize', 'nylas/nylas-mail', 'cli/cli', 'mitmproxy/mitmproxy', 'niklasvh/html2canvas', 'cheeriojs/cheerio', 'sentsin/layui', 'Advanced-Frontend/Daily-Interview-Question', 'typicode/husky', 'donnemartin/interactive-coding-challenges', 'CodeHubApp/CodeHub', 'scwang90/SmartRefreshLayout', 'remy/nodemon', 'poteto/hiring-without-whiteboards', 'jobbole/awesome-python-cn', 'gitlabhq/gitlabhq', 'hashicorp/vagrant', 'CymChad/BaseRecyclerViewAdapterHelper', 'alebcay/awesome-shell', 'emberjs/ember.js', 'sindresorhus/awesome-electron', 'pure-css/pure', 'heartcombo/devise', 'dbeaver/dbeaver', 'Polymer/polymer', 'hashicorp/vault', 'curl/curl', 'cockroachdb/cockroach', 'github/hub', 'go-kit/kit', 'ramda/ramda', 'guzzle/guzzle', 'alibaba/easyexcel', 'sqlmapproject/sqlmap', 'lukasz-madon/awesome-remote-job', 'jesseduffield/lazygit', 'google/iosched', 'feathericons/feather', 'labstack/echo', 'ColorlibHQ/gentelella', 'fastify/fastify', 'tornadoweb/tornado', 'nsqio/nsq', 'huihut/interview', 'google/zx', 'jlmakes/scrollreveal', 'git-tips/tips', 'futurice/android-best-practices', 'halfrost/LeetCode-Go', 'postcss/autoprefixer', 'keon/algorithms', 'tipsy/profile-summary-for-github', 'getredash/redash', 'marktext/marktext', 'afollestad/material-dialogs', 'AllThingsSmitty/css-protips', 'goldfire/howler.js', 'ClickHouse/ClickHouse', 'haizlin/fe-interview', 'Dreamacro/clash', 'sirupsen/logrus', 'davideuler/architecture.of.internet-product', 'Popmotion/popmotion', 'benweet/stackedit', 'js-cookie/js-cookie', 'v8/v8', 'google/ExoPlayer', 'ehang-io/nps', 'tsenart/vegeta', 'validatorjs/validator.js', 'numpy/numpy', 'nikitavoloboev/my-mac-os', 'celery/celery', 'PKUanonym/REKCARC-TSC-UHT', 'nostalgic-css/NES.css', 'BoostIO/Boostnote', 'eggjs/egg', 'qianguyihao/Web', 'academic/awesome-datascience', 'coreybutler/nvm-windows', 'google/flexbox-layout', 'websockets/ws', 'nocodb/nocodb', 'go-delve/delve', 'yewstack/yew', 'norvig/pytudes', 'mysqljs/mysql', 'less/less.js', 'LingCoder/OnJava8', 'nektos/act', 'svg/svgo', 'elastic/kibana', 'alsotang/node-lessons', 'kdeldycke/awesome-falsehood', 'mybatis/mybatis-3', 'facert/awesome-spider', 'statsd/statsd', 'Kotlin/anko', 'reddit-archive/reddit', 'rough-stuff/rough', 'charlax/professional-programming', 'oracle/graal', 'vnpy/vnpy']</t>
-  </si>
-  <si>
-    <t>['tensorflow/tensorflow', 'elastic/elasticsearch', 'doocs/advanced-java', 'keras-team/keras', 'pytorch/pytorch', 'huggingface/transformers', 'ageitgey/face_recognition', 'aymericdamien/TensorFlow-Examples', 'deepfakes/faceswap', 'Avik-Jain/100-Days-Of-ML-Code', 'BVLC/caffe', 'floodsung/Deep-Learning-Papers-Reading-Roadmap', 'google-research/bert', 'CorentinJ/Real-Time-Voice-Cloning', 'iperov/DeepFaceLab', 'GokuMohandas/MadeWithML', 'ZuzooVn/machine-learning-for-software-engineers', 'd2l-ai/d2l-zh', 'naptha/tesseract.js', 'hankcs/HanLP', 'ageron/handson-ml', 'terryum/awesome-deep-learning-papers', 'fengdu78/Coursera-ML-AndrewNg-Notes', 'ggreer/the_silver_searcher', 'yunjey/pytorch-tutorial', 'donnemartin/data-science-ipython-notebooks', 'dmlc/xgboost', 'fastai/fastai', 'explosion/spaCy', 'eriklindernoren/ML-From-Scratch', 'google-research/google-research', 'sebastianruder/NLP-progress', 'trekhleb/homemade-machine-learning', 'libuv/libuv', 'mozilla/DeepSpeech', 'datawhalechina/pumpkin-book', 'ChristosChristofidis/awesome-deep-learning', 'deezer/spleeter', 'remoteintech/remote-jobs', 'microsoft/ML-For-Beginners', 'microsoft/CNTK', 'ray-project/ray', 'MLEveryday/100-Days-Of-ML-Code', 'PaddlePaddle/Paddle', 'open-mmlab/mmdetection', 'meilisearch/MeiliSearch', 'lutzroeder/netron']</t>
+    <t>['jwasham/coding-interview-university', 'sindresorhus/awesome', 'twbs/bootstrap', 'donnemartin/system-design-primer', 'github/gitignore', 'trekhleb/javascript-algorithms', 'TheAlgorithms/Python', 'vinta/awesome-python', 'labuladong/fucking-algorithm', 'ossu/computer-science', 'golang/go', 'axios/axios', 'nodejs/node', 'angular/angular', 'mrdoob/three.js', 'animate-css/animate.css', 'avelino/awesome-go', 'MisterBooo/LeetCodeAnimation', 'awesome-selfhosted/awesome-selfhosted', 'pallets/flask', 'yangshun/tech-interview-handbook', 'atom/atom', 'thedaviddias/Front-End-Checklist', 'chartjs/Chart.js', 'expressjs/express', 'kdn251/interviews', 'Genymobile/scrcpy', 'h5bp/html5-boilerplate', 'nvm-sh/nvm', 'h5bp/Front-end-Developer-Interview-Questions', 'ansible/ansible', 'rails/rails', 'papers-we-love/papers-we-love', 'fatedier/frp', 'scikit-learn/scikit-learn', '521xueweihan/HelloGitHub', 'tailwindlabs/tailwindcss', 'psf/requests', 'jaywcjlove/awesome-mac', 'ionic-team/ionic-framework', 'ReactiveX/RxJava', 'necolas/normalize.css', 'mtdvio/every-programmer-should-know', 'jgthms/bulma', 'azl397985856/leetcode', 'grafana/grafana', 'leonardomso/33-js-concepts', 'sindresorhus/awesome-nodejs', 'DopplerHQ/awesome-interview-questions', 'google/guava', 'square/okhttp', 'TheAlgorithms/Java', 'juliangarnier/anime', 'apache/superset', 'nestjs/nest', 'android/architecture-samples', 'square/retrofit', 'JetBrains/kotlin', 'nwjs/nw.js', 'prakhar1989/awesome-courses', 'gogs/gogs', 'etcd-io/etcd', 'styled-components/styled-components', 'caddyserver/caddy', 'MunGell/awesome-for-beginners', 'discourse/discourse', 'PhilJay/MPAndroidChart', 'GitSquared/edex-ui', 'hexojs/hexo', 'tiimgreen/github-cheat-sheet', 'microsoft/Web-Dev-For-Beginners', 'sahat/hackathon-starter', 'dypsilon/frontend-dev-bookmarks', 'shadowsocks/shadowsocks-android', 'airbnb/lottie-android', 'Leaflet/Leaflet', 'yangshun/front-end-interview-handbook', 'zenorocha/clipboard.js', 'pandas-dev/pandas', 'apache/spark', 'akullpp/awesome-java', 'pingcap/tidb', 'joshbuchea/HEAD', 'carbon-app/carbon', 'nativefier/nativefier', 'willmcgugan/rich', 'zxing/zxing', 'certbot/certbot', 'geekxh/hello-algorithm', 'agalwood/Motrix', 'codepath/android_guides', 'satwikkansal/wtfpython', 'go-gitea/gitea', 'metabase/metabase', 'beego/beego', 'square/leakcanary', 'crossoverJie/JCSprout', 'go-gitea/gitea', 'metabase/metabase', 'herrbischoff/awesome-macos-command-line', 'ReactiveX/rxjs', 'typeorm/typeorm', 'IanLunn/Hover', 'Modernizr/Modernizr', 'postcss/postcss', 'gto76/python-cheatsheet', 'github/fetch', 'go-gorm/gorm', 'sequelize/sequelize', 'nylas/nylas-mail', 'cli/cli', 'mitmproxy/mitmproxy', 'niklasvh/html2canvas', 'cheeriojs/cheerio', 'sentsin/layui', 'Advanced-Frontend/Daily-Interview-Question', 'typicode/husky', 'donnemartin/interactive-coding-challenges', 'CodeHubApp/CodeHub', 'scwang90/SmartRefreshLayout', 'remy/nodemon', 'poteto/hiring-without-whiteboards', 'jobbole/awesome-python-cn', 'gitlabhq/gitlabhq', 'hashicorp/vagrant', 'CymChad/BaseRecyclerViewAdapterHelper', 'alebcay/awesome-shell', 'emberjs/ember.js', 'sindresorhus/awesome-electron', 'pure-css/pure', 'heartcombo/devise', 'dbeaver/dbeaver', 'Polymer/polymer', 'hashicorp/vault', 'curl/curl', 'cockroachdb/cockroach', 'github/hub', 'go-kit/kit', 'ramda/ramda', 'guzzle/guzzle', 'alibaba/easyexcel', 'sqlmapproject/sqlmap', 'lukasz-madon/awesome-remote-job', 'jesseduffield/lazygit', 'google/iosched', 'feathericons/feather', 'labstack/echo', 'fastify/fastify', 'tornadoweb/tornado', 'nsqio/nsq', 'huihut/interview', 'google/zx', 'jlmakes/scrollreveal', 'git-tips/tips', 'futurice/android-best-practices', 'halfrost/LeetCode-Go', 'postcss/autoprefixer', 'keon/algorithms', 'tipsy/profile-summary-for-github', 'getredash/redash', 'marktext/marktext', 'afollestad/material-dialogs', 'AllThingsSmitty/css-protips', 'goldfire/howler.js', 'ClickHouse/ClickHouse', 'haizlin/fe-interview', 'Dreamacro/clash', 'sirupsen/logrus', 'davideuler/architecture.of.internet-product', 'Popmotion/popmotion', 'benweet/stackedit', 'js-cookie/js-cookie', 'v8/v8', 'google/ExoPlayer', 'ehang-io/nps', 'tsenart/vegeta', 'validatorjs/validator.js', 'numpy/numpy', 'nikitavoloboev/my-mac-os', 'celery/celery', 'PKUanonym/REKCARC-TSC-UHT', 'nostalgic-css/NES.css', 'BoostIO/Boostnote', 'eggjs/egg', 'qianguyihao/Web', 'academic/awesome-datascience', 'coreybutler/nvm-windows', 'apache/flink', 'google/flexbox-layout', 'websockets/ws', 'nocodb/nocodb', 'go-delve/delve', 'yewstack/yew', 'norvig/pytudes', 'mysqljs/mysql', 'less/less.js', 'LingCoder/OnJava8', 'nektos/act', 'svg/svgo', 'elastic/kibana', 'alsotang/node-lessons', 'kdeldycke/awesome-falsehood', 'mybatis/mybatis-3', 'facert/awesome-spider', 'statsd/statsd', 'Kotlin/anko', 'reddit-archive/reddit', 'rough-stuff/rough', 'charlax/professional-programming', 'oracle/graal', 'vnpy/vnpy']</t>
+  </si>
+  <si>
+    <t>['tensorflow/tensorflow', 'elastic/elasticsearch', 'doocs/advanced-java', 'keras-team/keras', 'pytorch/pytorch', 'huggingface/transformers', 'ageitgey/face_recognition', 'aymericdamien/TensorFlow-Examples', 'deepfakes/faceswap', 'Avik-Jain/100-Days-Of-ML-Code', 'BVLC/caffe', 'floodsung/Deep-Learning-Papers-Reading-Roadmap', 'google-research/bert', 'CorentinJ/Real-Time-Voice-Cloning', 'iperov/DeepFaceLab', 'GokuMohandas/MadeWithML', 'ZuzooVn/machine-learning-for-software-engineers', 'd2l-ai/d2l-zh', 'naptha/tesseract.js', 'hankcs/HanLP', 'ageron/handson-ml', 'terryum/awesome-deep-learning-papers', 'fengdu78/Coursera-ML-AndrewNg-Notes', 'ggreer/the_silver_searcher', 'yunjey/pytorch-tutorial', 'donnemartin/data-science-ipython-notebooks', 'dmlc/xgboost', 'fastai/fastai', 'explosion/spaCy', 'eriklindernoren/ML-From-Scratch', 'google-research/google-research', 'sebastianruder/NLP-progress', 'trekhleb/homemade-machine-learning', 'libuv/libuv', 'mozilla/DeepSpeech', 'ChristosChristofidis/awesome-deep-learning', 'deezer/spleeter', 'remoteintech/remote-jobs', 'microsoft/ML-For-Beginners', 'microsoft/CNTK', 'ray-project/ray', 'MLEveryday/100-Days-Of-ML-Code', 'PaddlePaddle/Paddle', 'open-mmlab/mmdetection', 'meilisearch/MeiliSearch', 'lutzroeder/netron']</t>
   </si>
   <si>
     <t>['public-apis/public-apis', 'scrapy/scrapy', 'strapi/strapi', 'justjavac/awesome-wechat-weapp', 'tiangolo/fastapi', 'slatedocs/slate', 'NervJS/taro', 'minio/minio', 'hashicorp/terraform', 'Tencent/weui', 'Tencent/weui', 'YMFE/yapi', 'OAI/OpenAPI-Specification', 'encode/django-rest-framework', 'littlecodersh/ItChat', 'Binaryify/NeteaseCloudMusicApi', 'swagger-api/swagger-ui', 'FallibleInc/security-guide-for-developers', 'MustangYM/WeChatExtension-ForMac', 'StevenBlack/hosts', 'drduh/macOS-Security-and-Privacy-Guide', 'homebridge/homebridge', 'OWASP/CheatSheetSeries', 'sideway/joi', 'microsoft/api-guidelines', 'Kong/insomnia', 'DIYgod/RSSHub', 'jsdom/jsdom', 'linlinjava/litemall', 'Tencent/tinker', 'shieldfy/API-Security-Checklist']</t>
   </si>
   <si>
+    <t>['kubernetes/kubernetes', 'moby/moby', 'wagoodman/dive', 'mastodon/mastodon', 'docker/compose', 'dokku/dokku', 'kubernetes/minikube', 'veggiemonk/awesome-docker', 'wsargent/docker-cheat-sheet', 'helm/helm', 'portainer/portainer', 'envoyproxy/envoy', 'k3s-io/k3s', 'wekan/wekan', 'rancher/rancher']</t>
+  </si>
+  <si>
     <t>['ant-design/ant-design', 'mui-org/material-ui', 'PanJiaChen/vue-element-admin', 'ElemeFE/element', 'Semantic-Org/Semantic-UI', 'enaqx/awesome-react', 'nuxt/nuxt.js', 'Solido/awesome-flutter', 'bailicangdu/vue2-elm', 'vuetifyjs/vuetify', 'jondot/awesome-react-native', 'formium/formik', 'brillout/awesome-react-components', 'vuejs/vuex', 'mobxjs/mobx', 'iview/iview', 'react-hook-form/react-hook-form', 'bvaughn/react-virtualized', 't4t5/sweetalert', 'react-native-elements/react-native-elements', 'MostlyAdequate/mostly-adequate-guide', 'mattermost/mattermost-server', 'react-navigation/react-navigation', 'chakra-ui/chakra-ui', 'quasarframework/quasar', 'necolas/react-native-web', 'vercel/swr', 'vuejs/vue-router', 'youzan/vant', 'airyland/vux', 'alibaba/ice', 'ElemeFE/mint-ui', 'sudheerj/reactjs-interview-questions', 'iview/iview-admin']</t>
   </si>
   <si>
     <t>['laravel/laravel', 'symfony/symfony', 'ziadoz/awesome-php', 'laravel/framework', 'DesignPatternsPHP/DesignPatternsPHP', 'bcit-ci/CodeIgniter', 'sebastianbergmann/phpunit', 'facebook/hhvm', 'PHPMailer/PHPMailer']</t>
   </si>
   <si>
-    <t>['moby/moby', 'wagoodman/dive', 'mastodon/mastodon', 'docker/compose', 'veggiemonk/awesome-docker', 'wsargent/docker-cheat-sheet', 'portainer/portainer', 'wekan/wekan', 'rancher/rancher']</t>
-  </si>
-  <si>
     <t>['spring-projects/spring-boot', 'macrozheng/mall', 'spring-projects/spring-framework', 'ityouknow/spring-boot-examples', 'ctripcorp/apollo', 'jeecgboot/jeecg-boot', 'xkcoding/spring-boot-demo', 'wuyouzhuguli/SpringAll', 'pmndrs/react-spring', 'alibaba/spring-cloud-alibaba', 'alibaba/nacos', 'elunez/eladmin', 'shuzheng/zheng', 'forezp/SpringCloudLearning']</t>
   </si>
   <si>
@@ -67,18 +67,18 @@
     <t>['Hack-with-Github/Awesome-Hacking', 'facebook/jest', 'cypress-io/cypress', 'swisskyrepo/PayloadsAllTheThings', 'mochajs/mocha', 'enzymejs/enzyme', 'avajs/ava', 'locustio/locust']</t>
   </si>
   <si>
+    <t>['yarnpkg/yarn', 'lerna/lerna', 'Homebrew/brew', 'composer/composer', 'pypa/pipenv', 'python-poetry/poetry']</t>
+  </si>
+  <si>
+    <t>['vsouza/awesome-ios', 'Alamofire/Alamofire', 'dkhamsing/open-source-ios-apps', 'matteocrippa/awesome-swift', 'SwiftyJSON/SwiftyJSON', 'vapor/vapor', 'ReactiveX/RxSwift', 'HeroTransitions/Hero', 'ReactiveCocoa/ReactiveCocoa']</t>
+  </si>
+  <si>
+    <t>['3b1b/manim', 'videojs/video.js', 'bilibili/ijkplayer', 'iina/iina', 'jitsi/jitsi-meet', 'CarGuo/GSYVideoPlayer']</t>
+  </si>
+  <si>
     <t>['google/material-design-icons', 'Dogfalo/materialize', 'google/material-design-lite', 'angular/components', 'mdbootstrap/mdb-ui-kit', 'angular/material', 'framework7io/framework7']</t>
   </si>
   <si>
-    <t>['yarnpkg/yarn', 'lerna/lerna', 'Homebrew/brew', 'composer/composer', 'pypa/pipenv', 'python-poetry/poetry']</t>
-  </si>
-  <si>
-    <t>['vsouza/awesome-ios', 'Alamofire/Alamofire', 'dkhamsing/open-source-ios-apps', 'matteocrippa/awesome-swift', 'SwiftyJSON/SwiftyJSON', 'vapor/vapor', 'ReactiveX/RxSwift', 'HeroTransitions/Hero', 'ReactiveCocoa/ReactiveCocoa']</t>
-  </si>
-  <si>
-    <t>['3b1b/manim', 'videojs/video.js', 'bilibili/ijkplayer', 'iina/iina', 'jitsi/jitsi-meet', 'CarGuo/GSYVideoPlayer']</t>
-  </si>
-  <si>
     <t>['godotengine/godot', 'ocornut/imgui', 'photonstorm/phaser', 'atlassian/react-beautiful-dnd', 'SortableJS/Sortable', 'bevacqua/dragula', 'leereilly/games', 'mxgmn/WaveFunctionCollapse', 'react-dnd/react-dnd', 'dropzone/dropzone', 'SortableJS/Vue.Draggable']</t>
   </si>
   <si>
@@ -88,33 +88,30 @@
     <t>['hasura/graphql-engine', 'parse-community/parse-server', 'graphql/graphql-js', 'PostgREST/postgrest']</t>
   </si>
   <si>
-    <t>['kubernetes/kubernetes', 'kubernetes/minikube', 'helm/helm', 'envoyproxy/envoy', 'k3s-io/k3s']</t>
-  </si>
-  <si>
     <t>['home-assistant/core', 'huginn/huginn', 'psf/black', 'ApolloAuto/apollo', 'zsh-users/zsh-autosuggestions', 'Awesome-HarmonyOS/HarmonyOS', 'SnapKit/SnapKit', 'arendst/Tasmota', 'taosdata/TDengine']</t>
   </si>
   <si>
     <t>['flutter/flutter', 'fastlane/fastlane', 'nolimits4web/swiper', 'alibaba/weex']</t>
   </si>
   <si>
-    <t>[('javascript', 71), ('interview', 54), ('awesome', 43), ('python', 43), ('sql', 40), ('web', 39), ('css', 38), ('nodejs', 35), ('data', 34), ('git', 30), ('algorithm', 29), ('html', 27), ('go', 25), ('android', 25), ('hacktoberfest', 21)]</t>
-  </si>
-  <si>
-    <t>[('machinelearning', 45), ('deep-learning', 40), ('neural', 21), ('python', 20), ('nlp', 17), ('tensorflow', 14), ('search', 13), ('face-swap', 13), ('data', 9), ('pytorch', 9), ('distributed', 5), ('scikit-learn', 5), ('note', 5), ('java', 4), ('tutorial', 3)]</t>
+    <t>[('javascript', 71), ('interview', 54), ('awesome', 43), ('python', 43), ('sql', 40), ('web', 39), ('css', 38), ('nodejs', 35), ('data', 34), ('git', 30), ('algorithm', 29), ('html', 25), ('android', 25), ('go', 24), ('hacktoberfest', 21)]</t>
+  </si>
+  <si>
+    <t>[('machinelearning', 44), ('deep-learning', 40), ('neural', 21), ('python', 20), ('nlp', 17), ('tensorflow', 14), ('search', 13), ('face-swap', 13), ('data', 9), ('pytorch', 9), ('distributed', 5), ('scikit-learn', 5), ('note', 5), ('java', 4), ('tutorial', 3)]</t>
   </si>
   <si>
     <t>[('api', 33), ('wechat', 14), ('security', 10), ('rest', 8), ('cloud', 7), ('python', 6), ('swagger', 6), ('javascript', 5), ('web', 4), ('hacktoberfest', 3), ('nodejs', 3), ('react', 3), ('vue', 3), ('style', 3), ('macos', 3)]</t>
   </si>
   <si>
+    <t>[('docker', 28), ('kubernetes', 6), ('containers', 5), ('cncf', 4), ('go', 3), ('orchestration', 2), ('awesome', 2), ('moby', 2), ('cli', 1), ('inspector', 1), ('tui', 1), ('explorer', 1), ('social-network', 1), ('activity-stream', 1), ('microblog', 1)]</t>
+  </si>
+  <si>
     <t>[('react', 47), ('vue', 42), ('ui', 20), ('javascript', 16), ('material', 10), ('web', 9), ('typescript', 6), ('awesome', 6), ('hacktoberfest', 5), ('flutter', 5), ('system', 4), ('admin', 4), ('components', 4), ('mobile', 4), ('css', 3)]</t>
   </si>
   <si>
     <t>[('php', 22), ('framework', 3), ('laravel', 2), ('hacktoberfest', 2), ('awesome', 2), ('design', 2), ('symfony', 1), ('bundle', 1), ('symfony-bundle', 1), ('oop', 1), ('code-examples', 1), ('test', 1), ('hack', 1), ('hhvm', 1), ('hacklang', 1)]</t>
   </si>
   <si>
-    <t>[('docker', 27), ('containers', 2), ('orchestration', 2), ('awesome', 2), ('moby', 2), ('go', 1), ('cli', 1), ('inspector', 1), ('tui', 1), ('explorer', 1), ('social-network', 1), ('activity-stream', 1), ('microblog', 1), ('mastodon', 1), ('web', 1)]</t>
-  </si>
-  <si>
     <t>[('spring', 54), ('java', 6), ('distributed', 5), ('mybatis', 4), ('microservice', 4), ('alibaba', 4), ('docker', 3), ('redis', 3), ('swagger', 3), ('admin', 3), ('vue', 3), ('shiro', 3), ('dubbo', 3), ('framework', 2), ('mongodb', 2)]</t>
   </si>
   <si>
@@ -136,18 +133,18 @@
     <t>[('test', 31), ('nodejs', 4), ('javascript', 3), ('security', 2), ('hacking', 2), ('hacktoberfest', 2), ('mocha', 2), ('tdd', 2), ('react', 2), ('ava', 2), ('android', 1), ('awesome', 1), ('reverse-engineering', 1), ('bug-bounty', 1), ('fuzzing', 1)]</t>
   </si>
   <si>
+    <t>[('package', 8), ('npm', 2), ('dependency-manager', 2), ('python', 2), ('javascript', 1), ('yarn', 1), ('publishing', 1), ('lerna', 1), ('monorepo', 1), ('ruby', 1), ('macos', 1), ('homebrew', 1), ('brew', 1), ('php', 1), ('composer', 1)]</t>
+  </si>
+  <si>
+    <t>[('swift', 30), ('ios', 11), ('awesome', 5), ('react', 5), ('detection', 3), ('xcode', 3), ('cocoapods', 3), ('carthage', 3), ('apple', 3), ('json', 3), ('animation', 3), ('request', 2), ('response', 2), ('list', 2), ('server', 2)]</t>
+  </si>
+  <si>
+    <t>[('vedio', 15), ('html', 3), ('player', 3), ('android', 2), ('ffmpeg', 2), ('ijkplayer', 2), ('python', 1), ('animation', 1), ('javascript', 1), ('flash', 1), ('hls', 1), ('dash', 1), ('ios', 1), ('macos', 1), ('swift', 1)]</t>
+  </si>
+  <si>
     <t>[('material', 18), ('javascript', 3), ('css', 3), ('framework', 3), ('angular', 3), ('bootstrap', 3), ('android', 2), ('ios', 2), ('web', 1), ('sprites', 1), ('icons', 1), ('design', 1), ('mdl', 1), ('html', 1), ('uikit', 1)]</t>
   </si>
   <si>
-    <t>[('package', 8), ('npm', 2), ('dependency-manager', 2), ('python', 2), ('javascript', 1), ('yarn', 1), ('publishing', 1), ('lerna', 1), ('monorepo', 1), ('ruby', 1), ('macos', 1), ('homebrew', 1), ('brew', 1), ('php', 1), ('composer', 1)]</t>
-  </si>
-  <si>
-    <t>[('swift', 30), ('ios', 11), ('awesome', 5), ('react', 5), ('detection', 3), ('xcode', 3), ('cocoapods', 3), ('carthage', 3), ('apple', 3), ('json', 3), ('animation', 3), ('request', 2), ('response', 2), ('list', 2), ('server', 2)]</t>
-  </si>
-  <si>
-    <t>[('vedio', 15), ('html', 3), ('player', 3), ('android', 2), ('ffmpeg', 2), ('ijkplayer', 2), ('python', 1), ('animation', 1), ('javascript', 1), ('flash', 1), ('hls', 1), ('dash', 1), ('ios', 1), ('macos', 1), ('swift', 1)]</t>
-  </si>
-  <si>
     <t>[('game', 17), ('drag', 12), ('javascript', 4), ('sort', 3), ('ui', 2), ('html', 2), ('react', 2), ('reordering', 2), ('component', 2), ('open-source', 1), ('multi-platform', 1), ('godotengine', 1), ('godot', 1), ('gui', 1), ('tools', 1)]</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
   </si>
   <si>
     <t>[('graphql', 7), ('rest', 4), ('server', 4), ('sql', 3), ('postgres', 2), ('automation', 2), ('api', 1), ('bigquery', 1), ('access-control', 1), ('hasura', 1), ('notifications', 1), ('nodejs', 1), ('relay', 1), ('mongodb', 1), ('backend', 1)]</t>
-  </si>
-  <si>
-    <t>[('kubernetes', 4), ('cncf', 4), ('go', 2), ('containers', 2), ('cluster', 1), ('mini', 1), ('chart', 1), ('charts', 1), ('helm', 1), ('cats', 1), ('corgis', 1), ('cars', 1), ('rocket-ships', 1), ('more-cats', 1), ('cats-over-dogs', 1)]</t>
   </si>
   <si>
     <t>[('automation', 11), ('iot', 4), ('python', 2), ('mqtt', 2), ('twitter', 2), ('monitoring', 2), ('zsh', 2), ('raspberry-pi', 1), ('internet-of-things', 1), ('asyncio', 1), ('hacktoberfest', 1), ('notifications', 1), ('agent', 1), ('rss', 1), ('scraper', 1)]</t>
@@ -521,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -569,10 +563,10 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -589,7 +583,7 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -603,10 +597,10 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -620,10 +614,10 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -640,7 +634,7 @@
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -657,7 +651,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -674,7 +668,7 @@
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -691,7 +685,7 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -708,7 +702,7 @@
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -725,7 +719,7 @@
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -742,7 +736,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -759,7 +753,7 @@
         <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -773,10 +767,10 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -790,10 +784,10 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -807,10 +801,10 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -824,10 +818,10 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -844,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -861,7 +855,7 @@
         <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -878,7 +872,7 @@
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -892,10 +886,10 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -909,27 +903,10 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24">
-        <v>23</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
